--- a/Mifos Automation Excels/Client/4639-EI-DB-DL-SPDUEDATEFEEon20JAN2015-DISB-01JAN2015-FC-15JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4639-EI-DB-DL-SPDUEDATEFEEon20JAN2015-DISB-01JAN2015-FC-15JAN2015.xlsx
@@ -140,7 +140,7 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>4639-EI-DB-DL-SPDUEDATEFEEon20JAN2015-DISB-01JAN2015-FC-15JAN2015</t>
+    <t>4629-EI-DB-DL-DISB-01JAN2015-FC-15JAN2015</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
